--- a/Documenten/Uren/Uren Davy.xlsx
+++ b/Documenten/Uren/Uren Davy.xlsx
@@ -407,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,7 +473,7 @@
   <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +528,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>40</v>
       </c>
       <c r="G7" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
